--- a/www/IndicatorsPerCountry/Hungary_GDPperCapita_TerritorialRef_1946_2012_CCode_348.xlsx
+++ b/www/IndicatorsPerCountry/Hungary_GDPperCapita_TerritorialRef_1946_2012_CCode_348.xlsx
@@ -333,13 +333,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Hungary_GDPperCapita_TerritorialRef_1946_2012_CCode_348.xlsx
+++ b/www/IndicatorsPerCountry/Hungary_GDPperCapita_TerritorialRef_1946_2012_CCode_348.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="115">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,274 +36,292 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1092</t>
+    <t>1741</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1473</t>
-  </si>
-  <si>
-    <t>1682</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2279</t>
-  </si>
-  <si>
-    <t>2162</t>
-  </si>
-  <si>
-    <t>2237</t>
-  </si>
-  <si>
-    <t>2415</t>
-  </si>
-  <si>
-    <t>2476</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2268</t>
-  </si>
-  <si>
-    <t>2192</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>2370</t>
-  </si>
-  <si>
-    <t>2471</t>
-  </si>
-  <si>
-    <t>2618</t>
-  </si>
-  <si>
-    <t>2543</t>
-  </si>
-  <si>
-    <t>2655</t>
-  </si>
-  <si>
-    <t>2838</t>
-  </si>
-  <si>
-    <t>2626</t>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>2681</t>
+  </si>
+  <si>
+    <t>3188</t>
+  </si>
+  <si>
+    <t>3344</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>3048</t>
+  </si>
+  <si>
+    <t>3633</t>
+  </si>
+  <si>
+    <t>3446</t>
+  </si>
+  <si>
+    <t>3566</t>
+  </si>
+  <si>
+    <t>3849</t>
+  </si>
+  <si>
+    <t>3947</t>
+  </si>
+  <si>
+    <t>3832</t>
+  </si>
+  <si>
+    <t>3615</t>
+  </si>
+  <si>
+    <t>3494</t>
+  </si>
+  <si>
+    <t>3784</t>
+  </si>
+  <si>
+    <t>3778</t>
+  </si>
+  <si>
+    <t>3939</t>
+  </si>
+  <si>
+    <t>4173</t>
+  </si>
+  <si>
+    <t>4053</t>
+  </si>
+  <si>
+    <t>4232</t>
+  </si>
+  <si>
+    <t>4524</t>
+  </si>
+  <si>
+    <t>4186</t>
+  </si>
+  <si>
+    <t>4372</t>
   </si>
   <si>
     <t>2743</t>
   </si>
   <si>
-    <t>1721</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2354</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>2695</t>
-  </si>
-  <si>
-    <t>2762</t>
-  </si>
-  <si>
-    <t>2786</t>
-  </si>
-  <si>
-    <t>2850</t>
-  </si>
-  <si>
-    <t>3070</t>
-  </si>
-  <si>
-    <t>2906</t>
-  </si>
-  <si>
-    <t>3169</t>
-  </si>
-  <si>
-    <t>3367</t>
-  </si>
-  <si>
-    <t>3484</t>
-  </si>
-  <si>
-    <t>3649</t>
-  </si>
-  <si>
-    <t>3816</t>
-  </si>
-  <si>
-    <t>3962</t>
-  </si>
-  <si>
-    <t>4168</t>
-  </si>
-  <si>
-    <t>4388</t>
-  </si>
-  <si>
-    <t>4410</t>
-  </si>
-  <si>
-    <t>4646</t>
+    <t>2828</t>
+  </si>
+  <si>
+    <t>3507</t>
+  </si>
+  <si>
+    <t>3752</t>
+  </si>
+  <si>
+    <t>3953</t>
+  </si>
+  <si>
+    <t>4296</t>
+  </si>
+  <si>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>4441</t>
+  </si>
+  <si>
+    <t>4543</t>
   </si>
   <si>
     <t>4894</t>
   </si>
   <si>
-    <t>4934</t>
-  </si>
-  <si>
-    <t>5062</t>
-  </si>
-  <si>
-    <t>5028</t>
-  </si>
-  <si>
-    <t>5238</t>
-  </si>
-  <si>
-    <t>5336</t>
-  </si>
-  <si>
-    <t>5596</t>
-  </si>
-  <si>
-    <t>5716</t>
-  </si>
-  <si>
-    <t>5805</t>
-  </si>
-  <si>
-    <t>5791</t>
-  </si>
-  <si>
-    <t>6126</t>
-  </si>
-  <si>
-    <t>6253</t>
-  </si>
-  <si>
-    <t>6251</t>
-  </si>
-  <si>
-    <t>6306</t>
-  </si>
-  <si>
-    <t>6351</t>
-  </si>
-  <si>
-    <t>6583</t>
-  </si>
-  <si>
-    <t>6525</t>
-  </si>
-  <si>
-    <t>6710</t>
-  </si>
-  <si>
-    <t>6557</t>
-  </si>
-  <si>
-    <t>6699</t>
-  </si>
-  <si>
-    <t>6814</t>
-  </si>
-  <si>
-    <t>7031</t>
-  </si>
-  <si>
-    <t>6903</t>
-  </si>
-  <si>
-    <t>6458.80978183</t>
-  </si>
-  <si>
-    <t>5676.13180083</t>
-  </si>
-  <si>
-    <t>5510.02643732</t>
-  </si>
-  <si>
-    <t>5506.40027183</t>
-  </si>
-  <si>
-    <t>5687.11461606</t>
-  </si>
-  <si>
-    <t>5780.66222409</t>
-  </si>
-  <si>
-    <t>5802.10248263</t>
-  </si>
-  <si>
-    <t>6000.94627818</t>
-  </si>
-  <si>
-    <t>6263.23967688</t>
-  </si>
-  <si>
-    <t>6481.81359686</t>
-  </si>
-  <si>
-    <t>6771.78359447</t>
-  </si>
-  <si>
-    <t>7035.2983683</t>
-  </si>
-  <si>
-    <t>7364.78594412</t>
-  </si>
-  <si>
-    <t>7664.11678965</t>
-  </si>
-  <si>
-    <t>8047.23304089</t>
-  </si>
-  <si>
-    <t>8378.72876486</t>
-  </si>
-  <si>
-    <t>8715.09624965</t>
-  </si>
-  <si>
-    <t>8735.56217069</t>
-  </si>
-  <si>
-    <t>8825.76483362</t>
-  </si>
-  <si>
-    <t>8236.67530381</t>
-  </si>
-  <si>
-    <t>8352.6831553</t>
+    <t>4632</t>
+  </si>
+  <si>
+    <t>5051</t>
+  </si>
+  <si>
+    <t>5367</t>
+  </si>
+  <si>
+    <t>5553</t>
+  </si>
+  <si>
+    <t>5816</t>
+  </si>
+  <si>
+    <t>6083</t>
+  </si>
+  <si>
+    <t>6315</t>
+  </si>
+  <si>
+    <t>6644</t>
+  </si>
+  <si>
+    <t>6994</t>
+  </si>
+  <si>
+    <t>7029</t>
+  </si>
+  <si>
+    <t>7406</t>
+  </si>
+  <si>
+    <t>7801</t>
+  </si>
+  <si>
+    <t>7865</t>
+  </si>
+  <si>
+    <t>8069</t>
+  </si>
+  <si>
+    <t>8015</t>
+  </si>
+  <si>
+    <t>8349</t>
+  </si>
+  <si>
+    <t>8505</t>
+  </si>
+  <si>
+    <t>8920</t>
+  </si>
+  <si>
+    <t>9111</t>
+  </si>
+  <si>
+    <t>9253</t>
+  </si>
+  <si>
+    <t>9231</t>
+  </si>
+  <si>
+    <t>9765</t>
+  </si>
+  <si>
+    <t>9967</t>
+  </si>
+  <si>
+    <t>9964</t>
+  </si>
+  <si>
+    <t>10052</t>
+  </si>
+  <si>
+    <t>10123</t>
+  </si>
+  <si>
+    <t>10493</t>
+  </si>
+  <si>
+    <t>10401</t>
+  </si>
+  <si>
+    <t>10696</t>
+  </si>
+  <si>
+    <t>10452</t>
+  </si>
+  <si>
+    <t>10678</t>
+  </si>
+  <si>
+    <t>10861</t>
+  </si>
+  <si>
+    <t>11207</t>
+  </si>
+  <si>
+    <t>11003</t>
+  </si>
+  <si>
+    <t>10296</t>
+  </si>
+  <si>
+    <t>9255.90961746882</t>
+  </si>
+  <si>
+    <t>9153.92082439348</t>
+  </si>
+  <si>
+    <t>9294.46401363138</t>
+  </si>
+  <si>
+    <t>9772.22348755445</t>
+  </si>
+  <si>
+    <t>10134.8338868955</t>
+  </si>
+  <si>
+    <t>10359.1814112874</t>
+  </si>
+  <si>
+    <t>10942.3258879951</t>
+  </si>
+  <si>
+    <t>11663.0285152537</t>
+  </si>
+  <si>
+    <t>12316.7239958745</t>
+  </si>
+  <si>
+    <t>13129.2731078331</t>
+  </si>
+  <si>
+    <t>13933.5612624548</t>
+  </si>
+  <si>
+    <t>14899.3062651013</t>
+  </si>
+  <si>
+    <t>15829.8999364802</t>
+  </si>
+  <si>
+    <t>16999.0055142185</t>
+  </si>
+  <si>
+    <t>18140.6174178646</t>
+  </si>
+  <si>
+    <t>19253.0631373937</t>
+  </si>
+  <si>
+    <t>19763.7906657122</t>
+  </si>
+  <si>
+    <t>20380.6317638976</t>
+  </si>
+  <si>
+    <t>19461.0703282429</t>
+  </si>
+  <si>
+    <t>20036.3346536633</t>
+  </si>
+  <si>
+    <t>20886</t>
+  </si>
+  <si>
+    <t>20631</t>
+  </si>
+  <si>
+    <t>21126</t>
+  </si>
+  <si>
+    <t>22040</t>
+  </si>
+  <si>
+    <t>22788</t>
+  </si>
+  <si>
+    <t>23279</t>
   </si>
   <si>
     <t>Description</t>
@@ -2804,6 +2822,108 @@
         <v>96</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>348.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2819,50 +2939,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
